--- a/US/data/BOC/FTD/FTDE/AGDSCSB_M_historical.xlsx
+++ b/US/data/BOC/FTD/FTDE/AGDSCSB_M_historical.xlsx
@@ -2591,85 +2591,89 @@
         <v>-69191</v>
       </c>
       <c r="IT2" t="n">
-        <v>-67839</v>
+        <v>-67223</v>
       </c>
       <c r="IU2" t="n">
-        <v>-63702</v>
+        <v>-62607</v>
       </c>
       <c r="IV2" t="n">
-        <v>-68718</v>
+        <v>-67497</v>
       </c>
       <c r="IW2" t="n">
-        <v>-74616</v>
+        <v>-74772</v>
       </c>
       <c r="IX2" t="n">
-        <v>-76652</v>
+        <v>-76723</v>
       </c>
       <c r="IY2" t="n">
-        <v>-72004</v>
+        <v>-71253</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-80792</v>
+        <v>-80509</v>
       </c>
       <c r="JA2" t="n">
-        <v>-82966</v>
+        <v>-82412</v>
       </c>
       <c r="JB2" t="n">
-        <v>-81613</v>
+        <v>-80147</v>
       </c>
       <c r="JC2" t="n">
-        <v>-82127</v>
+        <v>-82161</v>
       </c>
       <c r="JD2" t="n">
-        <v>-86227</v>
+        <v>-85383</v>
       </c>
       <c r="JE2" t="n">
-        <v>-84770</v>
+        <v>-83199</v>
       </c>
       <c r="JF2" t="n">
-        <v>-85957</v>
+        <v>-86378</v>
       </c>
       <c r="JG2" t="n">
-        <v>-88675</v>
+        <v>-88298</v>
       </c>
       <c r="JH2" t="n">
-        <v>-92389</v>
+        <v>-90591</v>
       </c>
       <c r="JI2" t="n">
-        <v>-86419</v>
+        <v>-87488</v>
       </c>
       <c r="JJ2" t="n">
-        <v>-88686</v>
+        <v>-88032</v>
       </c>
       <c r="JK2" t="n">
-        <v>-92642</v>
+        <v>-91909</v>
       </c>
       <c r="JL2" t="n">
-        <v>-87136</v>
+        <v>-87707</v>
       </c>
       <c r="JM2" t="n">
-        <v>-88605</v>
+        <v>-88710</v>
       </c>
       <c r="JN2" t="n">
-        <v>-97429</v>
+        <v>-96162</v>
       </c>
       <c r="JO2" t="n">
-        <v>-83324</v>
+        <v>-86233</v>
       </c>
       <c r="JP2" t="n">
-        <v>-98371</v>
+        <v>-98264</v>
       </c>
       <c r="JQ2" t="n">
-        <v>-101751</v>
+        <v>-100522</v>
       </c>
       <c r="JR2" t="n">
-        <v>-108603</v>
+        <v>-108423</v>
       </c>
       <c r="JS2" t="n">
-        <v>-107470</v>
-      </c>
-      <c r="JT2" t="inlineStr"/>
-      <c r="JU2" t="inlineStr"/>
+        <v>-107014</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>-126810</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>-107737</v>
+      </c>
       <c r="JV2" t="inlineStr"/>
       <c r="JW2" t="inlineStr"/>
       <c r="JX2" t="inlineStr"/>
@@ -3455,85 +3459,89 @@
         <v>-68359</v>
       </c>
       <c r="IT3" t="n">
-        <v>-67133</v>
+        <v>-66498</v>
       </c>
       <c r="IU3" t="n">
-        <v>-62549</v>
+        <v>-61316</v>
       </c>
       <c r="IV3" t="n">
-        <v>-67823</v>
+        <v>-66520</v>
       </c>
       <c r="IW3" t="n">
-        <v>-73626</v>
+        <v>-73751</v>
       </c>
       <c r="IX3" t="n">
-        <v>-75950</v>
+        <v>-75978</v>
       </c>
       <c r="IY3" t="n">
-        <v>-71170</v>
+        <v>-70386</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-79970</v>
+        <v>-79622</v>
       </c>
       <c r="JA3" t="n">
-        <v>-82189</v>
+        <v>-81577</v>
       </c>
       <c r="JB3" t="n">
-        <v>-80243</v>
+        <v>-78764</v>
       </c>
       <c r="JC3" t="n">
-        <v>-81145</v>
+        <v>-81136</v>
       </c>
       <c r="JD3" t="n">
-        <v>-85402</v>
+        <v>-84527</v>
       </c>
       <c r="JE3" t="n">
-        <v>-83857</v>
+        <v>-82244</v>
       </c>
       <c r="JF3" t="n">
-        <v>-84936</v>
+        <v>-85344</v>
       </c>
       <c r="JG3" t="n">
-        <v>-87595</v>
+        <v>-87186</v>
       </c>
       <c r="JH3" t="n">
-        <v>-91301</v>
+        <v>-89471</v>
       </c>
       <c r="JI3" t="n">
-        <v>-85296</v>
+        <v>-86327</v>
       </c>
       <c r="JJ3" t="n">
-        <v>-87491</v>
+        <v>-86812</v>
       </c>
       <c r="JK3" t="n">
-        <v>-91390</v>
+        <v>-90629</v>
       </c>
       <c r="JL3" t="n">
-        <v>-86304</v>
+        <v>-86720</v>
       </c>
       <c r="JM3" t="n">
-        <v>-87374</v>
+        <v>-87361</v>
       </c>
       <c r="JN3" t="n">
-        <v>-96393</v>
+        <v>-95077</v>
       </c>
       <c r="JO3" t="n">
-        <v>-82490</v>
+        <v>-85274</v>
       </c>
       <c r="JP3" t="n">
-        <v>-97323</v>
+        <v>-97168</v>
       </c>
       <c r="JQ3" t="n">
-        <v>-100672</v>
+        <v>-99441</v>
       </c>
       <c r="JR3" t="n">
-        <v>-107357</v>
+        <v>-107284</v>
       </c>
       <c r="JS3" t="n">
-        <v>-106345</v>
-      </c>
-      <c r="JT3" t="inlineStr"/>
-      <c r="JU3" t="inlineStr"/>
+        <v>-105851</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>-125664</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>-106701</v>
+      </c>
       <c r="JV3" t="inlineStr"/>
       <c r="JW3" t="inlineStr"/>
       <c r="JX3" t="inlineStr"/>
@@ -4319,85 +4327,89 @@
         <v>-832</v>
       </c>
       <c r="IT4" t="n">
-        <v>-706</v>
+        <v>-725</v>
       </c>
       <c r="IU4" t="n">
-        <v>-1153</v>
+        <v>-1291</v>
       </c>
       <c r="IV4" t="n">
-        <v>-895</v>
+        <v>-977</v>
       </c>
       <c r="IW4" t="n">
-        <v>-990</v>
+        <v>-1021</v>
       </c>
       <c r="IX4" t="n">
-        <v>-702</v>
+        <v>-745</v>
       </c>
       <c r="IY4" t="n">
-        <v>-834</v>
+        <v>-867</v>
       </c>
       <c r="IZ4" t="n">
-        <v>-822</v>
+        <v>-887</v>
       </c>
       <c r="JA4" t="n">
-        <v>-777</v>
+        <v>-835</v>
       </c>
       <c r="JB4" t="n">
-        <v>-1370</v>
+        <v>-1383</v>
       </c>
       <c r="JC4" t="n">
-        <v>-982</v>
+        <v>-1025</v>
       </c>
       <c r="JD4" t="n">
-        <v>-825</v>
+        <v>-856</v>
       </c>
       <c r="JE4" t="n">
-        <v>-913</v>
+        <v>-955</v>
       </c>
       <c r="JF4" t="n">
-        <v>-1021</v>
+        <v>-1034</v>
       </c>
       <c r="JG4" t="n">
-        <v>-1080</v>
+        <v>-1112</v>
       </c>
       <c r="JH4" t="n">
-        <v>-1088</v>
+        <v>-1120</v>
       </c>
       <c r="JI4" t="n">
-        <v>-1123</v>
+        <v>-1161</v>
       </c>
       <c r="JJ4" t="n">
-        <v>-1195</v>
+        <v>-1220</v>
       </c>
       <c r="JK4" t="n">
-        <v>-1252</v>
+        <v>-1280</v>
       </c>
       <c r="JL4" t="n">
-        <v>-832</v>
+        <v>-987</v>
       </c>
       <c r="JM4" t="n">
-        <v>-1231</v>
+        <v>-1349</v>
       </c>
       <c r="JN4" t="n">
+        <v>-1085</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>-959</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>-1096</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>-1081</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>-1139</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>-1163</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>-1146</v>
+      </c>
+      <c r="JU4" t="n">
         <v>-1036</v>
       </c>
-      <c r="JO4" t="n">
-        <v>-834</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>-1048</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>-1079</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>-1246</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>-1125</v>
-      </c>
-      <c r="JT4" t="inlineStr"/>
-      <c r="JU4" t="inlineStr"/>
       <c r="JV4" t="inlineStr"/>
       <c r="JW4" t="inlineStr"/>
       <c r="JX4" t="inlineStr"/>
@@ -5183,85 +5195,89 @@
         <v>136699</v>
       </c>
       <c r="IT5" t="n">
-        <v>135567</v>
+        <v>136498</v>
       </c>
       <c r="IU5" t="n">
-        <v>135701</v>
+        <v>137170</v>
       </c>
       <c r="IV5" t="n">
-        <v>126875</v>
+        <v>126756</v>
       </c>
       <c r="IW5" t="n">
-        <v>95025</v>
+        <v>94629</v>
       </c>
       <c r="IX5" t="n">
-        <v>91051</v>
+        <v>90323</v>
       </c>
       <c r="IY5" t="n">
-        <v>103702</v>
+        <v>104017</v>
       </c>
       <c r="IZ5" t="n">
-        <v>115880</v>
+        <v>115637</v>
       </c>
       <c r="JA5" t="n">
-        <v>118981</v>
+        <v>119058</v>
       </c>
       <c r="JB5" t="n">
-        <v>121965</v>
+        <v>122957</v>
       </c>
       <c r="JC5" t="n">
-        <v>125761</v>
+        <v>125779</v>
       </c>
       <c r="JD5" t="n">
-        <v>126789</v>
+        <v>127248</v>
       </c>
       <c r="JE5" t="n">
-        <v>131500</v>
+        <v>132146</v>
       </c>
       <c r="JF5" t="n">
-        <v>134597</v>
+        <v>135206</v>
       </c>
       <c r="JG5" t="n">
-        <v>130533</v>
+        <v>131166</v>
       </c>
       <c r="JH5" t="n">
-        <v>143799</v>
+        <v>144023</v>
       </c>
       <c r="JI5" t="n">
-        <v>145311</v>
+        <v>143927</v>
       </c>
       <c r="JJ5" t="n">
-        <v>145874</v>
+        <v>145343</v>
       </c>
       <c r="JK5" t="n">
-        <v>146166</v>
+        <v>146285</v>
       </c>
       <c r="JL5" t="n">
-        <v>148870</v>
+        <v>147928</v>
       </c>
       <c r="JM5" t="n">
-        <v>150041</v>
+        <v>149480</v>
       </c>
       <c r="JN5" t="n">
-        <v>143019</v>
+        <v>144484</v>
       </c>
       <c r="JO5" t="n">
-        <v>159020</v>
+        <v>157621</v>
       </c>
       <c r="JP5" t="n">
-        <v>156271</v>
+        <v>156528</v>
       </c>
       <c r="JQ5" t="n">
-        <v>158208</v>
+        <v>159372</v>
       </c>
       <c r="JR5" t="n">
-        <v>155983</v>
+        <v>156911</v>
       </c>
       <c r="JS5" t="n">
-        <v>158777</v>
-      </c>
-      <c r="JT5" t="inlineStr"/>
-      <c r="JU5" t="inlineStr"/>
+        <v>160471</v>
+      </c>
+      <c r="JT5" t="n">
+        <v>170040</v>
+      </c>
+      <c r="JU5" t="n">
+        <v>176106</v>
+      </c>
       <c r="JV5" t="inlineStr"/>
       <c r="JW5" t="inlineStr"/>
       <c r="JX5" t="inlineStr"/>
@@ -6047,85 +6063,89 @@
         <v>136036</v>
       </c>
       <c r="IT6" t="n">
-        <v>134850</v>
+        <v>135688</v>
       </c>
       <c r="IU6" t="n">
-        <v>135050</v>
+        <v>136518</v>
       </c>
       <c r="IV6" t="n">
-        <v>126482</v>
+        <v>126375</v>
       </c>
       <c r="IW6" t="n">
-        <v>94927</v>
+        <v>94548</v>
       </c>
       <c r="IX6" t="n">
-        <v>90979</v>
+        <v>90269</v>
       </c>
       <c r="IY6" t="n">
-        <v>103466</v>
+        <v>103805</v>
       </c>
       <c r="IZ6" t="n">
-        <v>115610</v>
+        <v>115402</v>
       </c>
       <c r="JA6" t="n">
-        <v>118669</v>
+        <v>118778</v>
       </c>
       <c r="JB6" t="n">
-        <v>121729</v>
+        <v>122732</v>
       </c>
       <c r="JC6" t="n">
-        <v>125468</v>
+        <v>125519</v>
       </c>
       <c r="JD6" t="n">
-        <v>126537</v>
+        <v>127039</v>
       </c>
       <c r="JE6" t="n">
-        <v>131168</v>
+        <v>131847</v>
       </c>
       <c r="JF6" t="n">
-        <v>134339</v>
+        <v>134910</v>
       </c>
       <c r="JG6" t="n">
-        <v>130163</v>
+        <v>130792</v>
       </c>
       <c r="JH6" t="n">
-        <v>143335</v>
+        <v>143561</v>
       </c>
       <c r="JI6" t="n">
-        <v>144769</v>
+        <v>143413</v>
       </c>
       <c r="JJ6" t="n">
-        <v>145283</v>
+        <v>144803</v>
       </c>
       <c r="JK6" t="n">
-        <v>145464</v>
+        <v>145670</v>
       </c>
       <c r="JL6" t="n">
-        <v>148132</v>
+        <v>147264</v>
       </c>
       <c r="JM6" t="n">
-        <v>149372</v>
+        <v>148850</v>
       </c>
       <c r="JN6" t="n">
-        <v>142425</v>
+        <v>143884</v>
       </c>
       <c r="JO6" t="n">
-        <v>158248</v>
+        <v>156885</v>
       </c>
       <c r="JP6" t="n">
-        <v>155422</v>
+        <v>155658</v>
       </c>
       <c r="JQ6" t="n">
-        <v>157553</v>
+        <v>158610</v>
       </c>
       <c r="JR6" t="n">
-        <v>155337</v>
+        <v>156060</v>
       </c>
       <c r="JS6" t="n">
-        <v>157949</v>
-      </c>
-      <c r="JT6" t="inlineStr"/>
-      <c r="JU6" t="inlineStr"/>
+        <v>159495</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>168586</v>
+      </c>
+      <c r="JU6" t="n">
+        <v>174583</v>
+      </c>
       <c r="JV6" t="inlineStr"/>
       <c r="JW6" t="inlineStr"/>
       <c r="JX6" t="inlineStr"/>
@@ -6911,85 +6931,89 @@
         <v>663</v>
       </c>
       <c r="IT7" t="n">
-        <v>717</v>
+        <v>810</v>
       </c>
       <c r="IU7" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="IV7" t="n">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="IW7" t="n">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="IX7" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="IY7" t="n">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="IZ7" t="n">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="JA7" t="n">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="JB7" t="n">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="JC7" t="n">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="JD7" t="n">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="JE7" t="n">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="JF7" t="n">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="JG7" t="n">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="JH7" t="n">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="JI7" t="n">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="JJ7" t="n">
-        <v>592</v>
+        <v>540</v>
       </c>
       <c r="JK7" t="n">
-        <v>702</v>
+        <v>615</v>
       </c>
       <c r="JL7" t="n">
-        <v>739</v>
+        <v>664</v>
       </c>
       <c r="JM7" t="n">
-        <v>669</v>
+        <v>630</v>
       </c>
       <c r="JN7" t="n">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="JO7" t="n">
-        <v>772</v>
+        <v>736</v>
       </c>
       <c r="JP7" t="n">
-        <v>848</v>
+        <v>870</v>
       </c>
       <c r="JQ7" t="n">
-        <v>655</v>
+        <v>762</v>
       </c>
       <c r="JR7" t="n">
-        <v>646</v>
+        <v>851</v>
       </c>
       <c r="JS7" t="n">
-        <v>828</v>
-      </c>
-      <c r="JT7" t="inlineStr"/>
-      <c r="JU7" t="inlineStr"/>
+        <v>976</v>
+      </c>
+      <c r="JT7" t="n">
+        <v>1453</v>
+      </c>
+      <c r="JU7" t="n">
+        <v>1523</v>
+      </c>
       <c r="JV7" t="inlineStr"/>
       <c r="JW7" t="inlineStr"/>
       <c r="JX7" t="inlineStr"/>
@@ -7775,85 +7799,89 @@
         <v>205889</v>
       </c>
       <c r="IT8" t="n">
-        <v>203406</v>
+        <v>203721</v>
       </c>
       <c r="IU8" t="n">
-        <v>199403</v>
+        <v>199777</v>
       </c>
       <c r="IV8" t="n">
-        <v>195594</v>
+        <v>194253</v>
       </c>
       <c r="IW8" t="n">
-        <v>169641</v>
+        <v>169402</v>
       </c>
       <c r="IX8" t="n">
-        <v>167703</v>
+        <v>167046</v>
       </c>
       <c r="IY8" t="n">
-        <v>175706</v>
+        <v>175270</v>
       </c>
       <c r="IZ8" t="n">
-        <v>196672</v>
+        <v>196145</v>
       </c>
       <c r="JA8" t="n">
-        <v>201947</v>
+        <v>201470</v>
       </c>
       <c r="JB8" t="n">
-        <v>203577</v>
+        <v>203104</v>
       </c>
       <c r="JC8" t="n">
-        <v>207888</v>
+        <v>207940</v>
       </c>
       <c r="JD8" t="n">
-        <v>213017</v>
+        <v>212630</v>
       </c>
       <c r="JE8" t="n">
-        <v>216270</v>
+        <v>215345</v>
       </c>
       <c r="JF8" t="n">
-        <v>220554</v>
+        <v>221584</v>
       </c>
       <c r="JG8" t="n">
-        <v>219208</v>
+        <v>219465</v>
       </c>
       <c r="JH8" t="n">
-        <v>236188</v>
+        <v>234614</v>
       </c>
       <c r="JI8" t="n">
-        <v>231729</v>
+        <v>231416</v>
       </c>
       <c r="JJ8" t="n">
-        <v>234561</v>
+        <v>233376</v>
       </c>
       <c r="JK8" t="n">
-        <v>238808</v>
+        <v>238194</v>
       </c>
       <c r="JL8" t="n">
-        <v>236006</v>
+        <v>235635</v>
       </c>
       <c r="JM8" t="n">
-        <v>238646</v>
+        <v>238190</v>
       </c>
       <c r="JN8" t="n">
-        <v>240448</v>
+        <v>240647</v>
       </c>
       <c r="JO8" t="n">
-        <v>242344</v>
+        <v>243854</v>
       </c>
       <c r="JP8" t="n">
-        <v>254642</v>
+        <v>254791</v>
       </c>
       <c r="JQ8" t="n">
-        <v>259959</v>
+        <v>259895</v>
       </c>
       <c r="JR8" t="n">
-        <v>264586</v>
+        <v>265335</v>
       </c>
       <c r="JS8" t="n">
-        <v>266246</v>
-      </c>
-      <c r="JT8" t="inlineStr"/>
-      <c r="JU8" t="inlineStr"/>
+        <v>267485</v>
+      </c>
+      <c r="JT8" t="n">
+        <v>296850</v>
+      </c>
+      <c r="JU8" t="n">
+        <v>283842</v>
+      </c>
       <c r="JV8" t="inlineStr"/>
       <c r="JW8" t="inlineStr"/>
       <c r="JX8" t="inlineStr"/>
@@ -8639,85 +8667,89 @@
         <v>204395</v>
       </c>
       <c r="IT9" t="n">
-        <v>201983</v>
+        <v>202185</v>
       </c>
       <c r="IU9" t="n">
-        <v>197598</v>
+        <v>197834</v>
       </c>
       <c r="IV9" t="n">
-        <v>194305</v>
+        <v>192895</v>
       </c>
       <c r="IW9" t="n">
-        <v>168553</v>
+        <v>168299</v>
       </c>
       <c r="IX9" t="n">
-        <v>166928</v>
+        <v>166247</v>
       </c>
       <c r="IY9" t="n">
-        <v>174637</v>
+        <v>174192</v>
       </c>
       <c r="IZ9" t="n">
-        <v>195580</v>
+        <v>195023</v>
       </c>
       <c r="JA9" t="n">
-        <v>200858</v>
+        <v>200355</v>
       </c>
       <c r="JB9" t="n">
-        <v>201972</v>
+        <v>201496</v>
       </c>
       <c r="JC9" t="n">
-        <v>206612</v>
+        <v>206655</v>
       </c>
       <c r="JD9" t="n">
-        <v>211939</v>
+        <v>211566</v>
       </c>
       <c r="JE9" t="n">
-        <v>215025</v>
+        <v>214090</v>
       </c>
       <c r="JF9" t="n">
-        <v>219275</v>
+        <v>220255</v>
       </c>
       <c r="JG9" t="n">
-        <v>217758</v>
+        <v>217978</v>
       </c>
       <c r="JH9" t="n">
-        <v>234636</v>
+        <v>233032</v>
       </c>
       <c r="JI9" t="n">
-        <v>230065</v>
+        <v>229739</v>
       </c>
       <c r="JJ9" t="n">
-        <v>232774</v>
+        <v>231615</v>
       </c>
       <c r="JK9" t="n">
-        <v>236854</v>
+        <v>236299</v>
       </c>
       <c r="JL9" t="n">
-        <v>234436</v>
+        <v>233984</v>
       </c>
       <c r="JM9" t="n">
-        <v>236746</v>
+        <v>236211</v>
       </c>
       <c r="JN9" t="n">
-        <v>238818</v>
+        <v>238961</v>
       </c>
       <c r="JO9" t="n">
-        <v>240738</v>
+        <v>242159</v>
       </c>
       <c r="JP9" t="n">
-        <v>252745</v>
+        <v>252826</v>
       </c>
       <c r="JQ9" t="n">
-        <v>258225</v>
+        <v>258051</v>
       </c>
       <c r="JR9" t="n">
-        <v>262693</v>
+        <v>263344</v>
       </c>
       <c r="JS9" t="n">
-        <v>264294</v>
-      </c>
-      <c r="JT9" t="inlineStr"/>
-      <c r="JU9" t="inlineStr"/>
+        <v>265346</v>
+      </c>
+      <c r="JT9" t="n">
+        <v>294251</v>
+      </c>
+      <c r="JU9" t="n">
+        <v>281284</v>
+      </c>
       <c r="JV9" t="inlineStr"/>
       <c r="JW9" t="inlineStr"/>
       <c r="JX9" t="inlineStr"/>
@@ -9503,85 +9535,89 @@
         <v>1494</v>
       </c>
       <c r="IT10" t="n">
-        <v>1423</v>
+        <v>1535</v>
       </c>
       <c r="IU10" t="n">
-        <v>1805</v>
+        <v>1943</v>
       </c>
       <c r="IV10" t="n">
-        <v>1289</v>
+        <v>1358</v>
       </c>
       <c r="IW10" t="n">
-        <v>1088</v>
+        <v>1103</v>
       </c>
       <c r="IX10" t="n">
-        <v>774</v>
+        <v>799</v>
       </c>
       <c r="IY10" t="n">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="IZ10" t="n">
-        <v>1093</v>
+        <v>1122</v>
       </c>
       <c r="JA10" t="n">
-        <v>1089</v>
+        <v>1115</v>
       </c>
       <c r="JB10" t="n">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="JC10" t="n">
-        <v>1276</v>
+        <v>1285</v>
       </c>
       <c r="JD10" t="n">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="JE10" t="n">
-        <v>1245</v>
+        <v>1255</v>
       </c>
       <c r="JF10" t="n">
-        <v>1279</v>
+        <v>1330</v>
       </c>
       <c r="JG10" t="n">
-        <v>1450</v>
+        <v>1486</v>
       </c>
       <c r="JH10" t="n">
-        <v>1552</v>
+        <v>1582</v>
       </c>
       <c r="JI10" t="n">
-        <v>1664</v>
+        <v>1676</v>
       </c>
       <c r="JJ10" t="n">
-        <v>1787</v>
+        <v>1761</v>
       </c>
       <c r="JK10" t="n">
-        <v>1954</v>
+        <v>1895</v>
       </c>
       <c r="JL10" t="n">
-        <v>1571</v>
+        <v>1651</v>
       </c>
       <c r="JM10" t="n">
-        <v>1900</v>
+        <v>1979</v>
       </c>
       <c r="JN10" t="n">
-        <v>1630</v>
+        <v>1686</v>
       </c>
       <c r="JO10" t="n">
-        <v>1606</v>
+        <v>1695</v>
       </c>
       <c r="JP10" t="n">
-        <v>1897</v>
+        <v>1965</v>
       </c>
       <c r="JQ10" t="n">
-        <v>1734</v>
+        <v>1843</v>
       </c>
       <c r="JR10" t="n">
-        <v>1893</v>
+        <v>1991</v>
       </c>
       <c r="JS10" t="n">
-        <v>1952</v>
-      </c>
-      <c r="JT10" t="inlineStr"/>
-      <c r="JU10" t="inlineStr"/>
+        <v>2139</v>
+      </c>
+      <c r="JT10" t="n">
+        <v>2599</v>
+      </c>
+      <c r="JU10" t="n">
+        <v>2558</v>
+      </c>
       <c r="JV10" t="inlineStr"/>
       <c r="JW10" t="inlineStr"/>
       <c r="JX10" t="inlineStr"/>
